--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DonVi_CTCT.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DonVi_CTCT.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="__dv__">#REF!</definedName>
     <definedName name="__Items__">Sheet1!$A$12:$L$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$7:$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -230,9 +230,6 @@
 (NSQP)</t>
   </si>
   <si>
-    <t>&lt;#if(AND(&lt;#Items.VonBoTri5Nam&gt;=0); ;&lt;#FormatNumber(&lt;#Items.VonBoTri5Nam&gt;)&gt;)&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#evaluate(UPPER(&lt;#ChucDanh1&gt;))&gt;</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>&lt;#if(AND(&lt;#Items.SoPheDuyet&gt;="",&lt;#Items.dNgayPheDuyet&gt;=""); ;&lt;#Items.SoPheDuyet&gt;,&lt;#Items.dNgayPheDuyet&gt;)&gt;&lt;#AltFormat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.VonBoTri5Nam&gt;)&gt;&lt;#AltFormat&gt;</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1072,8 @@
   </sheetPr>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>38</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>59</v>
@@ -1418,19 +1418,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
       <c r="I17" s="68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
@@ -1439,19 +1439,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
       <c r="E18" s="69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="69"/>
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
       <c r="I18" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
@@ -1478,19 +1478,19 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="70"/>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
       <c r="I21" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="70"/>
       <c r="K21" s="70"/>
@@ -1544,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
